--- a/biology/Botanique/Acoelorraphe_wrightii/Acoelorraphe_wrightii.xlsx
+++ b/biology/Botanique/Acoelorraphe_wrightii/Acoelorraphe_wrightii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Paurotis de Wright, Acoelorraphe wrightii (parfois orthographié Acoelorrhaphe wrightii), est une espèce de palmiers (plantes de la famille des Arecaceae). 
-Cette espèce est présente dans la péninsule du Yucatán au Mexique, le long du littoral caraïbe de l'Amérique centrale (depuis le Belize jusqu'au nord du Costa Rica), dans les Caraïbes (à Cuba et l'archipel de San Andrés, Providencia et Santa Catalina), dans une partie des Bahamas, et dans l'extrême sud de la Floride[2]. Le nom du genre est une combinaison de trois mots grecs signifiant : ‘a’- « sans »,  'koilos' pour « creux » et ‘rhaphis’ « couture », une allusion à la forme du fruit ou plutôt de la graine qui est dénuée de cicatrice en creux.
+Cette espèce est présente dans la péninsule du Yucatán au Mexique, le long du littoral caraïbe de l'Amérique centrale (depuis le Belize jusqu'au nord du Costa Rica), dans les Caraïbes (à Cuba et l'archipel de San Andrés, Providencia et Santa Catalina), dans une partie des Bahamas, et dans l'extrême sud de la Floride. Le nom du genre est une combinaison de trois mots grecs signifiant : ‘a’- « sans »,  'koilos' pour « creux » et ‘rhaphis’ « couture », une allusion à la forme du fruit ou plutôt de la graine qui est dénuée de cicatrice en creux.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon The Plant List :
 Acanthosabal caespitosa Prosch.
@@ -553,9 +567,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le palmier est appelé « hairy Tom palmetto » au Belize, « guano preto » à Cuba, « tasiste » au Guatemala et au Mexique, « tique » au Honduras, « everglade palm » et « paurotis palm » aux États-Unis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le palmier est appelé « hairy Tom palmetto » au Belize, « guano preto » à Cuba, « tasiste » au Guatemala et au Mexique, « tique » au Honduras, « everglade palm » et « paurotis palm » aux États-Unis.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anciennement appelé Paurotis wrightii d'où son appellation vernaculaire, ce palmier, semblable au faux doum (Chamaerops humilis) pousse aux Everglades, en Floride.
 Il ressemble beaucoup à Chamaerops humilis mais son stipe est plus fin, ses feuilles plus grandes et son stipe est généralement plus haut, de 7 à 8 m.
@@ -619,7 +637,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Acoelorraphe wrightii est une espèce avant tout de zone humide et de climat tropical. En dépit de cela, ce palmier montre une intéressante capacité de résistance au froid, ce qui autorise sa culture sous des climats tempérés chauds. Des observations montrent que les feuilles ne sont complètement brulées qu'à partir de −7 °C. Les stipes sont capables de survivre à des températures encore plus basses. Ce palmier est très cultivé en Floride aux États-Unis.
 </t>
@@ -650,9 +670,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (7 août 2014)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 août 2014) :
 variété Acoelorrhaphe wrightii var. novo-geronensis Becc.</t>
         </is>
       </c>
